--- a/Figure_5/data/Metascape/metascape_input_genes.xlsx
+++ b/Figure_5/data/Metascape/metascape_input_genes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlyu/Box Sync/TSGOG_Project/SA_sub/github/DORGE_paper/Figure_codes/Figure_5/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlyu/Box Sync/TSGOG_Project/SA_sub/github/DORGE_paper/DORGE_codes/Figure_5/data/Metascape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC182F4-20BB-8E44-8041-70B31612057B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9910A1C-2F23-764C-B54B-E23714A530CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="460" windowWidth="19440" windowHeight="10960" xr2:uid="{9FC99C9C-B362-E244-9BEA-B24A30F7C800}"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="19440" windowHeight="10960" xr2:uid="{9FC99C9C-B362-E244-9BEA-B24A30F7C800}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="1203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="1178">
   <si>
     <t>Novel DORGE-TSG</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -850,9 +850,6 @@
     <t>ATM</t>
   </si>
   <si>
-    <t>CRTC1</t>
-  </si>
-  <si>
     <t>NCOR1</t>
   </si>
   <si>
@@ -898,9 +895,6 @@
     <t>KCNJ5</t>
   </si>
   <si>
-    <t>NTRK3</t>
-  </si>
-  <si>
     <t>CACNA1D</t>
   </si>
   <si>
@@ -916,9 +910,6 @@
     <t>DNMT3A</t>
   </si>
   <si>
-    <t>SYK</t>
-  </si>
-  <si>
     <t>LRP1B</t>
   </si>
   <si>
@@ -973,9 +964,6 @@
     <t>NFATC2</t>
   </si>
   <si>
-    <t>GRM3</t>
-  </si>
-  <si>
     <t>ERCC2</t>
   </si>
   <si>
@@ -1279,9 +1267,6 @@
     <t>ATXN1</t>
   </si>
   <si>
-    <t>MAML3</t>
-  </si>
-  <si>
     <t>SLC2A1</t>
   </si>
   <si>
@@ -1345,9 +1330,6 @@
     <t>MYCBP2</t>
   </si>
   <si>
-    <t>TLE1</t>
-  </si>
-  <si>
     <t>PICALM</t>
   </si>
   <si>
@@ -1360,9 +1342,6 @@
     <t>SGMS1</t>
   </si>
   <si>
-    <t>EEF2</t>
-  </si>
-  <si>
     <t>SLC20A1</t>
   </si>
   <si>
@@ -1408,9 +1387,6 @@
     <t>ZMYND8</t>
   </si>
   <si>
-    <t>EPHA2</t>
-  </si>
-  <si>
     <t>PANK2</t>
   </si>
   <si>
@@ -1537,9 +1513,6 @@
     <t>USP22</t>
   </si>
   <si>
-    <t>SMARCD3</t>
-  </si>
-  <si>
     <t>SMEK1</t>
   </si>
   <si>
@@ -1555,12 +1528,6 @@
     <t>UNC5B</t>
   </si>
   <si>
-    <t>SNRPD3</t>
-  </si>
-  <si>
-    <t>RREB1</t>
-  </si>
-  <si>
     <t>WASL</t>
   </si>
   <si>
@@ -1837,9 +1804,6 @@
     <t>TKT</t>
   </si>
   <si>
-    <t>HELZ</t>
-  </si>
-  <si>
     <t>ZCCHC14</t>
   </si>
   <si>
@@ -1918,9 +1882,6 @@
     <t>PGK1</t>
   </si>
   <si>
-    <t>SESN2</t>
-  </si>
-  <si>
     <t>WAPAL</t>
   </si>
   <si>
@@ -1963,9 +1924,6 @@
     <t>EIF5A</t>
   </si>
   <si>
-    <t>SLC9A1</t>
-  </si>
-  <si>
     <t>RASA1</t>
   </si>
   <si>
@@ -2134,9 +2092,6 @@
     <t>MGA</t>
   </si>
   <si>
-    <t>LITAF</t>
-  </si>
-  <si>
     <t>EBF3</t>
   </si>
   <si>
@@ -2146,9 +2101,6 @@
     <t>FARSB</t>
   </si>
   <si>
-    <t>CHEK1</t>
-  </si>
-  <si>
     <t>TPX2</t>
   </si>
   <si>
@@ -2302,9 +2254,6 @@
     <t>TAF1</t>
   </si>
   <si>
-    <t>SWAP70</t>
-  </si>
-  <si>
     <t>IWS1</t>
   </si>
   <si>
@@ -2314,9 +2263,6 @@
     <t>NFIC</t>
   </si>
   <si>
-    <t>SBF2</t>
-  </si>
-  <si>
     <t>ZBTB1</t>
   </si>
   <si>
@@ -2374,15 +2320,9 @@
     <t>ARID4B</t>
   </si>
   <si>
-    <t>GPBP1L1</t>
-  </si>
-  <si>
     <t>PIK3C2B</t>
   </si>
   <si>
-    <t>FOXN3</t>
-  </si>
-  <si>
     <t>MIB1</t>
   </si>
   <si>
@@ -2398,9 +2338,6 @@
     <t>WDR33</t>
   </si>
   <si>
-    <t>NR6A1</t>
-  </si>
-  <si>
     <t>RASSF4</t>
   </si>
   <si>
@@ -2461,9 +2398,6 @@
     <t>GIGYF2</t>
   </si>
   <si>
-    <t>RPS11</t>
-  </si>
-  <si>
     <t>SNRNP70</t>
   </si>
   <si>
@@ -2560,9 +2494,6 @@
     <t>CDC27</t>
   </si>
   <si>
-    <t>ERH</t>
-  </si>
-  <si>
     <t>GCN1L1</t>
   </si>
   <si>
@@ -2584,9 +2515,6 @@
     <t>URB1</t>
   </si>
   <si>
-    <t>NTM</t>
-  </si>
-  <si>
     <t>ANKFY1</t>
   </si>
   <si>
@@ -2599,9 +2527,6 @@
     <t>KIAA0100</t>
   </si>
   <si>
-    <t>CRTC3</t>
-  </si>
-  <si>
     <t>RAD50</t>
   </si>
   <si>
@@ -2629,9 +2554,6 @@
     <t>ILK</t>
   </si>
   <si>
-    <t>DIP2C</t>
-  </si>
-  <si>
     <t>FLT1</t>
   </si>
   <si>
@@ -2863,12 +2785,6 @@
     <t>ACO2</t>
   </si>
   <si>
-    <t>PHF5A</t>
-  </si>
-  <si>
-    <t>CCDC88C</t>
-  </si>
-  <si>
     <t>PTPRS</t>
   </si>
   <si>
@@ -2878,27 +2794,15 @@
     <t>RPS6KB1</t>
   </si>
   <si>
-    <t>RPA2</t>
-  </si>
-  <si>
-    <t>KRT8</t>
-  </si>
-  <si>
     <t>ZNF717</t>
   </si>
   <si>
     <t>MSH3</t>
   </si>
   <si>
-    <t>EIF3I</t>
-  </si>
-  <si>
     <t>NUP62</t>
   </si>
   <si>
-    <t>PIK3CD</t>
-  </si>
-  <si>
     <t>HACL1</t>
   </si>
   <si>
@@ -2923,9 +2827,6 @@
     <t>LAPTM5</t>
   </si>
   <si>
-    <t>EPHA3</t>
-  </si>
-  <si>
     <t>ITGB4</t>
   </si>
   <si>
@@ -2953,9 +2854,6 @@
     <t>TTN</t>
   </si>
   <si>
-    <t>SH2D3C</t>
-  </si>
-  <si>
     <t>CTBP2</t>
   </si>
   <si>
@@ -2968,9 +2866,6 @@
     <t>RBFOX1</t>
   </si>
   <si>
-    <t>IKZF3</t>
-  </si>
-  <si>
     <t>ZBTB38</t>
   </si>
   <si>
@@ -3040,9 +2935,6 @@
     <t>YTHDC1</t>
   </si>
   <si>
-    <t>YPEL5</t>
-  </si>
-  <si>
     <t>CCDC12</t>
   </si>
   <si>
@@ -3091,9 +2983,6 @@
     <t>PPP1R18</t>
   </si>
   <si>
-    <t>CLEC16A</t>
-  </si>
-  <si>
     <t>KANSL3</t>
   </si>
   <si>
@@ -3376,9 +3265,6 @@
     <t>ACVR1B</t>
   </si>
   <si>
-    <t>IFITM3</t>
-  </si>
-  <si>
     <t>RNF111</t>
   </si>
   <si>
@@ -3607,9 +3493,6 @@
     <t>TFAP2D</t>
   </si>
   <si>
-    <t>RPL14P1</t>
-  </si>
-  <si>
     <t>DLGAP1</t>
   </si>
   <si>
@@ -3619,9 +3502,6 @@
     <t>MACF1</t>
   </si>
   <si>
-    <t>SPHAR</t>
-  </si>
-  <si>
     <t>NGEF</t>
   </si>
   <si>
@@ -3643,7 +3523,52 @@
     <t>PRCC</t>
   </si>
   <si>
-    <t>FIP1L1</t>
+    <t>MLL3</t>
+  </si>
+  <si>
+    <t>ASPM</t>
+  </si>
+  <si>
+    <t>VEZT</t>
+  </si>
+  <si>
+    <t>MLL2</t>
+  </si>
+  <si>
+    <t>ACTN1</t>
+  </si>
+  <si>
+    <t>ITGA5</t>
+  </si>
+  <si>
+    <t>RPL37</t>
+  </si>
+  <si>
+    <t>DST</t>
+  </si>
+  <si>
+    <t>MEF2A</t>
+  </si>
+  <si>
+    <t>SMARCC2</t>
+  </si>
+  <si>
+    <t>SIM1</t>
+  </si>
+  <si>
+    <t>PCBP2</t>
+  </si>
+  <si>
+    <t>PTPRF</t>
+  </si>
+  <si>
+    <t>RYR2</t>
+  </si>
+  <si>
+    <t>KMT2E</t>
+  </si>
+  <si>
+    <t>ANKRD40</t>
   </si>
 </sst>
 </file>
@@ -4013,10 +3938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A70CC6C-5A2D-8C41-99B0-71D265602C0E}">
-  <dimension ref="A1:F766"/>
+  <dimension ref="A1:F726"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4042,10 +3967,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -4056,10 +3981,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -4070,10 +3995,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1027</v>
+        <v>990</v>
       </c>
       <c r="C4" t="s">
         <v>94</v>
@@ -4087,7 +4012,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1028</v>
+        <v>991</v>
       </c>
       <c r="C5" t="s">
         <v>96</v>
@@ -4098,10 +4023,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -4112,10 +4037,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1029</v>
+        <v>992</v>
       </c>
       <c r="C7" t="s">
         <v>99</v>
@@ -4126,10 +4051,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1030</v>
+        <v>993</v>
       </c>
       <c r="C8" t="s">
         <v>101</v>
@@ -4140,10 +4065,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -4154,10 +4079,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C10" t="s">
         <v>102</v>
@@ -4168,7 +4093,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>90</v>
@@ -4182,10 +4107,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1031</v>
+        <v>994</v>
       </c>
       <c r="C12" t="s">
         <v>105</v>
@@ -4196,10 +4121,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C13" t="s">
         <v>106</v>
@@ -4213,7 +4138,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C14" t="s">
         <v>108</v>
@@ -4224,10 +4149,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C15" t="s">
         <v>110</v>
@@ -4238,7 +4163,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>92</v>
@@ -4255,7 +4180,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1032</v>
+        <v>995</v>
       </c>
       <c r="C17" t="s">
         <v>114</v>
@@ -4266,7 +4191,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>94</v>
@@ -4280,10 +4205,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1033</v>
+        <v>996</v>
       </c>
       <c r="C19" t="s">
         <v>118</v>
@@ -4294,10 +4219,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1034</v>
+        <v>997</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -4308,7 +4233,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>96</v>
@@ -4322,10 +4247,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1035</v>
+        <v>998</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -4336,10 +4261,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C23" t="s">
         <v>122</v>
@@ -4350,7 +4275,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>97</v>
@@ -4364,10 +4289,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C25" t="s">
         <v>124</v>
@@ -4378,7 +4303,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>99</v>
@@ -4392,7 +4317,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>101</v>
@@ -4406,10 +4331,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -4420,10 +4345,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C29" t="s">
         <v>129</v>
@@ -4434,10 +4359,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1036</v>
+        <v>999</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -4448,10 +4373,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C31" t="s">
         <v>130</v>
@@ -4462,10 +4387,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1037</v>
+        <v>1000</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
@@ -4476,10 +4401,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C33" t="s">
         <v>133</v>
@@ -4490,7 +4415,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>102</v>
@@ -4504,10 +4429,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
@@ -4532,10 +4457,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -4546,10 +4471,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1038</v>
+        <v>1001</v>
       </c>
       <c r="C38" t="s">
         <v>20</v>
@@ -4560,7 +4485,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>105</v>
@@ -4577,7 +4502,7 @@
         <v>24</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C40" t="s">
         <v>140</v>
@@ -4588,10 +4513,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C41" t="s">
         <v>21</v>
@@ -4602,10 +4527,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C42" t="s">
         <v>23</v>
@@ -4616,10 +4541,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C43" t="s">
         <v>141</v>
@@ -4630,10 +4555,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C44" t="s">
         <v>142</v>
@@ -4644,10 +4569,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1039</v>
+        <v>1002</v>
       </c>
       <c r="C45" t="s">
         <v>144</v>
@@ -4658,10 +4583,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C46" t="s">
         <v>146</v>
@@ -4672,10 +4597,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C47" t="s">
         <v>25</v>
@@ -4686,10 +4611,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -4700,10 +4625,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1040</v>
+        <v>1003</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4717,7 +4642,7 @@
         <v>26</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1041</v>
+        <v>1004</v>
       </c>
       <c r="C50" t="s">
         <v>147</v>
@@ -4728,7 +4653,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>108</v>
@@ -4742,7 +4667,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>110</v>
@@ -4756,10 +4681,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C53" t="s">
         <v>148</v>
@@ -4770,10 +4695,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C54" t="s">
         <v>150</v>
@@ -4784,10 +4709,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C55" t="s">
         <v>151</v>
@@ -4798,10 +4723,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C56" t="s">
         <v>152</v>
@@ -4812,10 +4737,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C57" t="s">
         <v>154</v>
@@ -4826,10 +4751,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C58" t="s">
         <v>156</v>
@@ -4840,10 +4765,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1042</v>
+        <v>1005</v>
       </c>
       <c r="C59" t="s">
         <v>157</v>
@@ -4854,10 +4779,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C60" t="s">
         <v>159</v>
@@ -4868,10 +4793,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C61" t="s">
         <v>160</v>
@@ -4882,10 +4807,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C62" t="s">
         <v>161</v>
@@ -4896,10 +4821,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C63" t="s">
         <v>164</v>
@@ -4910,10 +4835,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C64" t="s">
         <v>166</v>
@@ -4924,10 +4849,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C65" t="s">
         <v>169</v>
@@ -4938,10 +4863,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C66" t="s">
         <v>170</v>
@@ -4966,10 +4891,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C68" t="s">
         <v>174</v>
@@ -4980,10 +4905,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C69" t="s">
         <v>177</v>
@@ -4994,7 +4919,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>116</v>
@@ -5008,10 +4933,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1043</v>
+        <v>1006</v>
       </c>
       <c r="C71" t="s">
         <v>180</v>
@@ -5022,10 +4947,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C72" t="s">
         <v>181</v>
@@ -5036,10 +4961,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1044</v>
+        <v>1007</v>
       </c>
       <c r="C73" t="s">
         <v>182</v>
@@ -5050,10 +4975,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>404</v>
+        <v>1165</v>
       </c>
       <c r="C74" t="s">
         <v>183</v>
@@ -5067,7 +4992,7 @@
         <v>33</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>118</v>
+        <v>400</v>
       </c>
       <c r="C75" t="s">
         <v>185</v>
@@ -5078,10 +5003,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1045</v>
+        <v>118</v>
       </c>
       <c r="C76" t="s">
         <v>186</v>
@@ -5092,10 +5017,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1046</v>
+        <v>1008</v>
       </c>
       <c r="C77" t="s">
         <v>187</v>
@@ -5106,10 +5031,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>406</v>
+        <v>1009</v>
       </c>
       <c r="C78" t="s">
         <v>35</v>
@@ -5120,10 +5045,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C79" t="s">
         <v>189</v>
@@ -5134,10 +5059,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C80" t="s">
         <v>190</v>
@@ -5148,10 +5073,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C81" t="s">
         <v>192</v>
@@ -5162,10 +5087,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C82" t="s">
         <v>36</v>
@@ -5176,10 +5101,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1047</v>
+        <v>408</v>
       </c>
       <c r="C83" t="s">
         <v>194</v>
@@ -5190,10 +5115,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>413</v>
+        <v>1010</v>
       </c>
       <c r="C84" t="s">
         <v>196</v>
@@ -5204,10 +5129,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C85" t="s">
         <v>38</v>
@@ -5218,10 +5143,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>417</v>
+        <v>1166</v>
       </c>
       <c r="C86" t="s">
         <v>39</v>
@@ -5232,10 +5157,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1048</v>
+        <v>411</v>
       </c>
       <c r="C87" t="s">
         <v>198</v>
@@ -5246,10 +5171,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C88" t="s">
         <v>41</v>
@@ -5260,10 +5185,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1049</v>
+        <v>1011</v>
       </c>
       <c r="C89" t="s">
         <v>201</v>
@@ -5274,10 +5199,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C90" t="s">
         <v>42</v>
@@ -5288,10 +5213,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>423</v>
+        <v>1012</v>
       </c>
       <c r="C91" t="s">
         <v>203</v>
@@ -5302,10 +5227,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C92" t="s">
         <v>204</v>
@@ -5316,10 +5241,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>122</v>
+        <v>418</v>
       </c>
       <c r="C93" t="s">
         <v>43</v>
@@ -5330,10 +5255,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>123</v>
+        <v>419</v>
       </c>
       <c r="C94" t="s">
         <v>206</v>
@@ -5344,10 +5269,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1050</v>
+        <v>122</v>
       </c>
       <c r="C95" t="s">
         <v>208</v>
@@ -5358,10 +5283,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C96" t="s">
         <v>44</v>
@@ -5372,10 +5297,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2" t="s">
-        <v>435</v>
+        <v>40</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1051</v>
+        <v>1013</v>
       </c>
       <c r="C97" t="s">
         <v>209</v>
@@ -5386,10 +5311,10 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
-        <v>40</v>
+        <v>431</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C98" t="s">
         <v>46</v>
@@ -5400,10 +5325,10 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>432</v>
+        <v>1014</v>
       </c>
       <c r="C99" t="s">
         <v>211</v>
@@ -5414,10 +5339,10 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1052</v>
+        <v>127</v>
       </c>
       <c r="C100" t="s">
         <v>212</v>
@@ -5428,10 +5353,10 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1053</v>
+        <v>427</v>
       </c>
       <c r="C101" t="s">
         <v>213</v>
@@ -5442,10 +5367,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>129</v>
+        <v>1015</v>
       </c>
       <c r="C102" t="s">
         <v>215</v>
@@ -5456,10 +5381,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>433</v>
+        <v>1016</v>
       </c>
       <c r="C103" t="s">
         <v>216</v>
@@ -5470,10 +5395,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1054</v>
+        <v>129</v>
       </c>
       <c r="C104" t="s">
         <v>48</v>
@@ -5484,10 +5409,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C105" t="s">
         <v>218</v>
@@ -5498,10 +5423,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1055</v>
+        <v>1017</v>
       </c>
       <c r="C106" t="s">
         <v>219</v>
@@ -5512,10 +5437,10 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C107" t="s">
         <v>220</v>
@@ -5527,10 +5452,10 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>439</v>
+        <v>1018</v>
       </c>
       <c r="C108" t="s">
         <v>221</v>
@@ -5541,10 +5466,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1056</v>
+        <v>431</v>
       </c>
       <c r="C109" t="s">
         <v>52</v>
@@ -5555,10 +5480,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C110" t="s">
         <v>222</v>
@@ -5569,10 +5494,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2" t="s">
-        <v>448</v>
+        <v>45</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>133</v>
+        <v>1019</v>
       </c>
       <c r="C111" t="s">
         <v>224</v>
@@ -5583,10 +5508,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2" t="s">
-        <v>449</v>
+        <v>47</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1057</v>
+        <v>434</v>
       </c>
       <c r="C112" t="s">
         <v>226</v>
@@ -5597,10 +5522,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>443</v>
+        <v>133</v>
       </c>
       <c r="C113" t="s">
         <v>227</v>
@@ -5611,10 +5536,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2" t="s">
-        <v>45</v>
+        <v>445</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>444</v>
+        <v>1020</v>
       </c>
       <c r="C114" t="s">
         <v>230</v>
@@ -5625,10 +5550,10 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2" t="s">
-        <v>47</v>
+        <v>446</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1058</v>
+        <v>436</v>
       </c>
       <c r="C115" t="s">
         <v>232</v>
@@ -5640,10 +5565,10 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C116" t="s">
         <v>54</v>
@@ -5654,10 +5579,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>449</v>
+        <v>1021</v>
       </c>
       <c r="C117" t="s">
         <v>233</v>
@@ -5668,10 +5593,10 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C118" t="s">
         <v>234</v>
@@ -5682,10 +5607,10 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2" t="s">
-        <v>454</v>
+        <v>53</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C119" t="s">
         <v>236</v>
@@ -5696,10 +5621,10 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2" t="s">
-        <v>455</v>
+        <v>55</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>136</v>
+        <v>443</v>
       </c>
       <c r="C120" t="s">
         <v>238</v>
@@ -5710,10 +5635,10 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C121" t="s">
         <v>239</v>
@@ -5724,10 +5649,10 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>460</v>
+        <v>136</v>
       </c>
       <c r="C122" t="s">
         <v>56</v>
@@ -5738,10 +5663,10 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1059</v>
+        <v>449</v>
       </c>
       <c r="C123" t="s">
         <v>242</v>
@@ -5752,10 +5677,10 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C124" t="s">
         <v>57</v>
@@ -5766,10 +5691,10 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1060</v>
+        <v>1022</v>
       </c>
       <c r="C125" t="s">
         <v>244</v>
@@ -5780,10 +5705,10 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C126" t="s">
         <v>58</v>
@@ -5794,10 +5719,10 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
-        <v>60</v>
+        <v>455</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1061</v>
+        <v>1023</v>
       </c>
       <c r="C127" t="s">
         <v>245</v>
@@ -5808,10 +5733,10 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2" t="s">
-        <v>61</v>
+        <v>456</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C128" t="s">
         <v>247</v>
@@ -5822,10 +5747,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>140</v>
+        <v>1024</v>
       </c>
       <c r="C129" t="s">
         <v>249</v>
@@ -5836,10 +5761,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="C130" t="s">
         <v>251</v>
@@ -5850,10 +5775,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>473</v>
+        <v>140</v>
       </c>
       <c r="C131" t="s">
         <v>252</v>
@@ -5864,10 +5789,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="C132" t="s">
         <v>59</v>
@@ -5878,10 +5803,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="C133" t="s">
         <v>254</v>
@@ -5892,10 +5817,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>480</v>
+        <v>141</v>
       </c>
       <c r="C134" t="s">
         <v>256</v>
@@ -5906,10 +5831,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1062</v>
+        <v>471</v>
       </c>
       <c r="C135" t="s">
         <v>257</v>
@@ -5920,10 +5845,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C136" t="s">
         <v>258</v>
@@ -5934,10 +5859,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>142</v>
+        <v>1025</v>
       </c>
       <c r="C137" t="s">
         <v>260</v>
@@ -5948,10 +5873,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C138" t="s">
         <v>62</v>
@@ -5962,10 +5887,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1063</v>
+        <v>142</v>
       </c>
       <c r="C139" t="s">
         <v>261</v>
@@ -5976,38 +5901,38 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1064</v>
+        <v>477</v>
       </c>
       <c r="C140" t="s">
         <v>262</v>
       </c>
       <c r="D140" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1065</v>
+        <v>1026</v>
       </c>
       <c r="C141" t="s">
         <v>263</v>
       </c>
       <c r="D141" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1066</v>
+        <v>1027</v>
       </c>
       <c r="C142" t="s">
         <v>264</v>
@@ -6018,24 +5943,24 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>487</v>
+        <v>1028</v>
       </c>
       <c r="C143" t="s">
         <v>266</v>
       </c>
       <c r="D143" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1067</v>
+        <v>1029</v>
       </c>
       <c r="C144" t="s">
         <v>268</v>
@@ -6046,83 +5971,83 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>144</v>
+        <v>479</v>
       </c>
       <c r="C145" t="s">
         <v>270</v>
       </c>
       <c r="D145" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>146</v>
+        <v>1030</v>
       </c>
       <c r="C146" t="s">
         <v>63</v>
       </c>
       <c r="D146" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>491</v>
+        <v>144</v>
       </c>
       <c r="C147" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D147" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1068</v>
+        <v>146</v>
       </c>
       <c r="C148" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>147</v>
+        <v>483</v>
       </c>
       <c r="C149" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D149" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>492</v>
+        <v>1031</v>
       </c>
       <c r="C150" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D150" t="s">
         <v>74</v>
@@ -6130,27 +6055,27 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>494</v>
+        <v>147</v>
       </c>
       <c r="C151" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D151" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C152" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D152" t="s">
         <v>75</v>
@@ -6158,125 +6083,125 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2" t="s">
-        <v>484</v>
+        <v>68</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>148</v>
+        <v>486</v>
       </c>
       <c r="C153" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D153" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>150</v>
+        <v>487</v>
       </c>
       <c r="C154" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D154" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1069</v>
+        <v>148</v>
       </c>
       <c r="C155" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D155" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2" t="s">
-        <v>487</v>
+        <v>72</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>151</v>
+        <v>490</v>
       </c>
       <c r="C156" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D156" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C157" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D157" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>503</v>
+        <v>1032</v>
       </c>
       <c r="C158" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D158" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2" t="s">
-        <v>68</v>
+        <v>486</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C159" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D159" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1070</v>
+        <v>152</v>
       </c>
       <c r="C160" t="s">
         <v>65</v>
       </c>
       <c r="D160" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1071</v>
+        <v>494</v>
       </c>
       <c r="C161" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D161" t="s">
         <v>82</v>
@@ -6284,41 +6209,41 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>72</v>
+        <v>489</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>504</v>
+        <v>154</v>
       </c>
       <c r="C162" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D162" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>156</v>
+        <v>1033</v>
       </c>
       <c r="C163" t="s">
         <v>67</v>
       </c>
       <c r="D163" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>157</v>
+        <v>1034</v>
       </c>
       <c r="C164" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D164" t="s">
         <v>84</v>
@@ -6326,27 +6251,27 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="C165" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D165" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>511</v>
+        <v>156</v>
       </c>
       <c r="C166" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D166" t="s">
         <v>86</v>
@@ -6354,55 +6279,55 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>513</v>
+        <v>157</v>
       </c>
       <c r="C167" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D167" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C168" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D168" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="C169" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D169" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1072</v>
+        <v>502</v>
       </c>
       <c r="C170" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D170" t="s">
         <v>88</v>
@@ -6410,58 +6335,58 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C171" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D171"/>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="C172" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D172"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>521</v>
+        <v>1035</v>
       </c>
       <c r="C173" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D173"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>523</v>
+        <v>1167</v>
       </c>
       <c r="C174" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D174"/>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>524</v>
+        <v>160</v>
       </c>
       <c r="C175" t="s">
         <v>70</v>
@@ -6470,10 +6395,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="C176" t="s">
         <v>71</v>
@@ -6482,118 +6407,118 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>164</v>
+        <v>510</v>
       </c>
       <c r="C177" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D177"/>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1073</v>
+        <v>512</v>
       </c>
       <c r="C178" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D178"/>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>166</v>
+        <v>513</v>
       </c>
       <c r="C179" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D179"/>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="C180" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D180"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1074</v>
+        <v>164</v>
       </c>
       <c r="C181" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D181"/>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1075</v>
+        <v>1036</v>
       </c>
       <c r="C182" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D182"/>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1076</v>
+        <v>166</v>
       </c>
       <c r="C183" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D183"/>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="C184" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D184"/>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>169</v>
+        <v>1162</v>
       </c>
       <c r="C185" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D185"/>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2" t="s">
-        <v>515</v>
+        <v>80</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>535</v>
+        <v>1037</v>
       </c>
       <c r="C186" t="s">
         <v>75</v>
@@ -6602,22 +6527,22 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>536</v>
+        <v>1038</v>
       </c>
       <c r="C187" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D187"/>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>540</v>
+        <v>1168</v>
       </c>
       <c r="C188" t="s">
         <v>78</v>
@@ -6626,82 +6551,82 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>542</v>
+        <v>1039</v>
       </c>
       <c r="C189" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D189"/>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="C190" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D190"/>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>1077</v>
+        <v>169</v>
       </c>
       <c r="C191" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D191"/>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>1078</v>
+        <v>524</v>
       </c>
       <c r="C192" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D192"/>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="C193" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D193"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>523</v>
+        <v>1162</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="C194" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D194"/>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1079</v>
+        <v>531</v>
       </c>
       <c r="C195" t="s">
         <v>82</v>
@@ -6710,46 +6635,46 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1080</v>
+        <v>532</v>
       </c>
       <c r="C196" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D196"/>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>554</v>
+        <v>1040</v>
       </c>
       <c r="C197" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D197"/>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>172</v>
+        <v>1041</v>
       </c>
       <c r="C198" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D198"/>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="C199" t="s">
         <v>84</v>
@@ -6758,10 +6683,10 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="C200" t="s">
         <v>86</v>
@@ -6770,34 +6695,34 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="C201" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D201"/>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1081</v>
+        <v>1042</v>
       </c>
       <c r="C202" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D202"/>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>1082</v>
+        <v>1043</v>
       </c>
       <c r="C203" t="s">
         <v>88</v>
@@ -6806,3717 +6731,3768 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>174</v>
+        <v>543</v>
       </c>
       <c r="C204"/>
       <c r="D204"/>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C205"/>
       <c r="D205"/>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2" t="s">
-        <v>534</v>
+        <v>83</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="C206"/>
       <c r="D206"/>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="C207"/>
       <c r="D207"/>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="C208"/>
       <c r="D208"/>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1083</v>
+        <v>1044</v>
       </c>
       <c r="C209"/>
       <c r="D209"/>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1084</v>
+        <v>1045</v>
       </c>
       <c r="C210"/>
       <c r="D210"/>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C211"/>
       <c r="D211"/>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2" t="s">
-        <v>540</v>
+        <v>85</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>572</v>
+        <v>177</v>
       </c>
       <c r="C212"/>
       <c r="D212"/>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="C213"/>
       <c r="D213"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2" t="s">
-        <v>83</v>
+        <v>537</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="C214"/>
       <c r="D214"/>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="C215"/>
       <c r="D215"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="C216"/>
       <c r="D216"/>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>1085</v>
+        <v>1046</v>
       </c>
       <c r="C217"/>
       <c r="D217"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>582</v>
+        <v>1047</v>
       </c>
       <c r="C218"/>
       <c r="D218"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>584</v>
+        <v>178</v>
       </c>
       <c r="C219"/>
       <c r="D219"/>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1086</v>
+        <v>561</v>
       </c>
       <c r="C220"/>
       <c r="D220"/>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2" t="s">
-        <v>547</v>
+        <v>1043</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="C221"/>
       <c r="D221"/>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>183</v>
+        <v>564</v>
       </c>
       <c r="C222"/>
       <c r="D222"/>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>185</v>
+        <v>567</v>
       </c>
       <c r="C223"/>
       <c r="D223"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="C224"/>
       <c r="D224"/>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>604</v>
+        <v>1048</v>
       </c>
       <c r="C225"/>
       <c r="D225"/>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>186</v>
+        <v>571</v>
       </c>
       <c r="C226"/>
       <c r="D226"/>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>1087</v>
+        <v>573</v>
       </c>
       <c r="C227"/>
       <c r="D227"/>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>89</v>
+        <v>549</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>607</v>
+        <v>1049</v>
       </c>
       <c r="C228"/>
       <c r="D228"/>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>554</v>
+        <v>91</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1088</v>
+        <v>587</v>
       </c>
       <c r="C229"/>
       <c r="D229"/>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>555</v>
+        <v>93</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>609</v>
+        <v>1169</v>
       </c>
       <c r="C230"/>
       <c r="D230"/>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>611</v>
+        <v>183</v>
       </c>
       <c r="C231"/>
       <c r="D231"/>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>1089</v>
+        <v>185</v>
       </c>
       <c r="C232"/>
       <c r="D232"/>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>1090</v>
+        <v>590</v>
       </c>
       <c r="C233"/>
       <c r="D233"/>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>189</v>
+        <v>592</v>
       </c>
       <c r="C234"/>
       <c r="D234"/>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>620</v>
+        <v>186</v>
       </c>
       <c r="C235"/>
       <c r="D235"/>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2" t="s">
-        <v>91</v>
+        <v>555</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>623</v>
+        <v>1050</v>
       </c>
       <c r="C236"/>
       <c r="D236"/>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2" t="s">
-        <v>93</v>
+        <v>556</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1091</v>
+        <v>594</v>
       </c>
       <c r="C237"/>
       <c r="D237"/>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>192</v>
+        <v>595</v>
       </c>
       <c r="C238"/>
       <c r="D238"/>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>625</v>
+        <v>1051</v>
       </c>
       <c r="C239"/>
       <c r="D239"/>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>1092</v>
+        <v>597</v>
       </c>
       <c r="C240"/>
       <c r="D240"/>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>194</v>
+        <v>599</v>
       </c>
       <c r="C241"/>
       <c r="D241"/>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1093</v>
+        <v>1052</v>
       </c>
       <c r="C242"/>
       <c r="D242"/>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>631</v>
+        <v>1053</v>
       </c>
       <c r="C243"/>
       <c r="D243"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>636</v>
+        <v>189</v>
       </c>
       <c r="C244"/>
       <c r="D244"/>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>637</v>
+        <v>608</v>
       </c>
       <c r="C245"/>
       <c r="D245"/>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>1094</v>
+        <v>1170</v>
       </c>
       <c r="C246"/>
       <c r="D246"/>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="C247"/>
       <c r="D247"/>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>641</v>
+        <v>1054</v>
       </c>
       <c r="C248"/>
       <c r="D248"/>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>643</v>
+        <v>192</v>
       </c>
       <c r="C249"/>
       <c r="D249"/>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2" t="s">
-        <v>573</v>
+        <v>100</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="C250"/>
       <c r="D250"/>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>1095</v>
+        <v>1055</v>
       </c>
       <c r="C251"/>
       <c r="D251"/>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>1096</v>
+        <v>194</v>
       </c>
       <c r="C252"/>
       <c r="D252"/>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>650</v>
+        <v>1056</v>
       </c>
       <c r="C253"/>
       <c r="D253"/>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1097</v>
+        <v>618</v>
       </c>
       <c r="C254"/>
       <c r="D254"/>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="C255"/>
       <c r="D255"/>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2" t="s">
-        <v>579</v>
+        <v>107</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1098</v>
+        <v>624</v>
       </c>
       <c r="C256"/>
       <c r="D256"/>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2" t="s">
-        <v>100</v>
+        <v>574</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>653</v>
+        <v>1057</v>
       </c>
       <c r="C257"/>
       <c r="D257"/>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>657</v>
+        <v>626</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>658</v>
+        <v>628</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>201</v>
+        <v>629</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>203</v>
+        <v>632</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1099</v>
+        <v>1058</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2" t="s">
-        <v>107</v>
+        <v>580</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>206</v>
+        <v>1059</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2" t="s">
-        <v>585</v>
+        <v>109</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>1100</v>
+        <v>636</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>208</v>
+        <v>1060</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2" t="s">
-        <v>587</v>
+        <v>111</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>1101</v>
+        <v>637</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2" t="s">
-        <v>588</v>
+        <v>113</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>1102</v>
+        <v>1061</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>1103</v>
+        <v>639</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2" t="s">
-        <v>590</v>
+        <v>117</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>1104</v>
+        <v>643</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>209</v>
+        <v>644</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2" t="s">
-        <v>592</v>
+        <v>119</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>694</v>
+        <v>201</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2" t="s">
-        <v>111</v>
+        <v>584</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>1105</v>
+        <v>651</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2" t="s">
-        <v>113</v>
+        <v>585</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>696</v>
+        <v>203</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>698</v>
+        <v>1062</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2" t="s">
-        <v>117</v>
+        <v>587</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>1106</v>
+        <v>206</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1107</v>
+        <v>1171</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2" t="s">
-        <v>119</v>
+        <v>589</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1108</v>
+        <v>1063</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>704</v>
+        <v>208</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1109</v>
+        <v>1064</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>709</v>
+        <v>1065</v>
       </c>
       <c r="C280"/>
       <c r="D280"/>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>216</v>
+        <v>1066</v>
       </c>
       <c r="C281"/>
       <c r="D281"/>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>1110</v>
+        <v>1067</v>
       </c>
       <c r="C282"/>
       <c r="D282"/>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>1111</v>
+        <v>209</v>
       </c>
       <c r="C283"/>
       <c r="D283"/>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1112</v>
+        <v>680</v>
       </c>
       <c r="C284"/>
       <c r="D284"/>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>218</v>
+        <v>1068</v>
       </c>
       <c r="C285"/>
       <c r="D285"/>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>716</v>
+        <v>682</v>
       </c>
       <c r="C286"/>
       <c r="D286"/>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>719</v>
+        <v>684</v>
       </c>
       <c r="C287"/>
       <c r="D287"/>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>1113</v>
+        <v>1069</v>
       </c>
       <c r="C288"/>
       <c r="D288"/>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>724</v>
+        <v>1070</v>
       </c>
       <c r="C289"/>
       <c r="D289"/>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>726</v>
+        <v>1071</v>
       </c>
       <c r="C290"/>
       <c r="D290"/>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>728</v>
+        <v>688</v>
       </c>
       <c r="C291"/>
       <c r="D291"/>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>730</v>
+        <v>1072</v>
       </c>
       <c r="C292"/>
       <c r="D292"/>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1114</v>
+        <v>693</v>
       </c>
       <c r="C293"/>
       <c r="D293"/>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>734</v>
+        <v>216</v>
       </c>
       <c r="C294"/>
       <c r="D294"/>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>743</v>
+        <v>1073</v>
       </c>
       <c r="C295"/>
       <c r="D295"/>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2" t="s">
-        <v>613</v>
+        <v>125</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>744</v>
+        <v>1074</v>
       </c>
       <c r="C296"/>
       <c r="D296"/>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>1115</v>
+        <v>1075</v>
       </c>
       <c r="C297"/>
       <c r="D297"/>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>745</v>
+        <v>218</v>
       </c>
       <c r="C298"/>
       <c r="D298"/>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>746</v>
+        <v>700</v>
       </c>
       <c r="C299"/>
       <c r="D299"/>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>748</v>
+        <v>703</v>
       </c>
       <c r="C300"/>
       <c r="D300"/>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>220</v>
+        <v>708</v>
       </c>
       <c r="C301"/>
       <c r="D301"/>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>750</v>
+        <v>710</v>
       </c>
       <c r="C302"/>
       <c r="D302"/>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2" t="s">
-        <v>620</v>
+        <v>128</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>1116</v>
+        <v>712</v>
       </c>
       <c r="C303"/>
       <c r="D303"/>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>1117</v>
+        <v>714</v>
       </c>
       <c r="C304"/>
       <c r="D304"/>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1118</v>
+        <v>1076</v>
       </c>
       <c r="C305"/>
       <c r="D305"/>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>758</v>
+        <v>718</v>
       </c>
       <c r="C306"/>
       <c r="D306"/>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>760</v>
+        <v>727</v>
       </c>
       <c r="C307"/>
       <c r="D307"/>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>1119</v>
+        <v>728</v>
       </c>
       <c r="C308"/>
       <c r="D308"/>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>1120</v>
+        <v>1077</v>
       </c>
       <c r="C309"/>
       <c r="D309"/>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2" t="s">
-        <v>626</v>
+        <v>134</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1121</v>
+        <v>729</v>
       </c>
       <c r="C310"/>
       <c r="D310"/>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>1122</v>
+        <v>730</v>
       </c>
       <c r="C311"/>
       <c r="D311"/>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>222</v>
+        <v>732</v>
       </c>
       <c r="C312"/>
       <c r="D312"/>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C313"/>
       <c r="D313"/>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1123</v>
+        <v>734</v>
       </c>
       <c r="C314"/>
       <c r="D314"/>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>763</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2" t="s">
-        <v>132</v>
+        <v>626</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>765</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>766</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>1124</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>227</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2" t="s">
-        <v>634</v>
+        <v>139</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1125</v>
+        <v>741</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2" t="s">
-        <v>134</v>
+        <v>630</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>774</v>
+        <v>742</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>230</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>1126</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>777</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2" t="s">
-        <v>137</v>
+        <v>634</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>780</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>1127</v>
+        <v>222</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>1128</v>
+        <v>224</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>1129</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>1130</v>
+        <v>745</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>791</v>
+        <v>747</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>792</v>
+        <v>748</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2" t="s">
-        <v>139</v>
+        <v>641</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>1131</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2" t="s">
-        <v>644</v>
+        <v>145</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>239</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>801</v>
+        <v>756</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>806</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>807</v>
+        <v>759</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>811</v>
+        <v>761</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>815</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>816</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>817</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>245</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>249</v>
+        <v>770</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2" t="s">
-        <v>145</v>
+        <v>653</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>1132</v>
+        <v>771</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>1133</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1134</v>
+        <v>239</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>829</v>
+        <v>780</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1135</v>
+        <v>242</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>1136</v>
+        <v>785</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>256</v>
+        <v>786</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>1137</v>
+        <v>789</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>258</v>
+        <v>793</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>260</v>
+        <v>794</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>839</v>
+        <v>795</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>840</v>
+        <v>245</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>1138</v>
+        <v>249</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>1139</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2" t="s">
-        <v>670</v>
+        <v>1163</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>1140</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2" t="s">
-        <v>149</v>
+        <v>669</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>845</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>262</v>
+        <v>807</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>263</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>856</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>1141</v>
+        <v>256</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>264</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2" t="s">
-        <v>677</v>
+        <v>158</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1142</v>
+        <v>258</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>272</v>
+        <v>817</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>867</v>
+        <v>818</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>1143</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>1144</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>1145</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>875</v>
+        <v>261</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>275</v>
+        <v>822</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>1146</v>
+        <v>263</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2" t="s">
-        <v>688</v>
+        <v>163</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>879</v>
+        <v>831</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>883</v>
+        <v>832</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>888</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1147</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>892</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1148</v>
+        <v>270</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2" t="s">
-        <v>694</v>
+        <v>167</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>894</v>
+        <v>271</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2" t="s">
-        <v>695</v>
+        <v>168</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>285</v>
+        <v>841</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>1149</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1150</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1151</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2" t="s">
-        <v>163</v>
+        <v>693</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1152</v>
+        <v>849</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2" t="s">
-        <v>165</v>
+        <v>694</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>1153</v>
+        <v>275</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>1154</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>1155</v>
+        <v>853</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>904</v>
+        <v>857</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>296</v>
+        <v>862</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2" t="s">
-        <v>704</v>
+        <v>171</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>1156</v>
+        <v>280</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>1157</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2" t="s">
-        <v>167</v>
+        <v>701</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>1158</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2" t="s">
-        <v>168</v>
+        <v>702</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>300</v>
+        <v>868</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>1159</v>
+        <v>284</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>1160</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>301</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>1161</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>1162</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>920</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>922</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>306</v>
+        <v>876</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>928</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2" t="s">
-        <v>171</v>
+        <v>713</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>1163</v>
+        <v>878</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>1164</v>
+        <v>293</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>1165</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>933</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>1166</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>1167</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>1168</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2" t="s">
-        <v>724</v>
+        <v>173</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>940</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>315</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>944</v>
+        <v>302</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>945</v>
+        <v>894</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>1169</v>
+        <v>896</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>1170</v>
+        <v>303</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>1171</v>
+        <v>902</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>1172</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2" t="s">
-        <v>732</v>
+        <v>176</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>320</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>322</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>955</v>
+        <v>907</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>324</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>1173</v>
+        <v>306</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>1174</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2" t="s">
-        <v>173</v>
+        <v>735</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>1175</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2" t="s">
-        <v>738</v>
+        <v>179</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>957</v>
+        <v>309</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>325</v>
+        <v>914</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>959</v>
+        <v>311</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>326</v>
+        <v>916</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>1176</v>
+        <v>917</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>329</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>330</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>1177</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2" t="s">
-        <v>176</v>
+        <v>743</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>331</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>1178</v>
+        <v>318</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>1179</v>
+        <v>923</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>1180</v>
+        <v>320</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>1181</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>1182</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2" t="s">
-        <v>179</v>
+        <v>750</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1183</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>1184</v>
+        <v>925</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>973</v>
+        <v>321</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>975</v>
+        <v>927</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>1185</v>
+        <v>322</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>976</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>978</v>
+        <v>326</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>338</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>979</v>
+        <v>327</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>981</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1186</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>1187</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>1188</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>340</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1189</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>1190</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>985</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2" t="s">
-        <v>770</v>
+        <v>191</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>1191</v>
+        <v>939</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2" t="s">
-        <v>771</v>
+        <v>193</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>986</v>
+        <v>941</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2" t="s">
-        <v>772</v>
+        <v>195</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>344</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>1192</v>
+        <v>942</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>990</v>
+        <v>333</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>1193</v>
+        <v>943</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>994</v>
+        <v>334</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2" t="s">
-        <v>777</v>
+        <v>197</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>1194</v>
+        <v>944</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>1195</v>
+        <v>335</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>1196</v>
+        <v>946</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>1197</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>1198</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>999</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2" t="s">
-        <v>783</v>
+        <v>199</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>1000</v>
+        <v>336</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>1006</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2" t="s">
-        <v>785</v>
+        <v>202</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>1199</v>
+        <v>950</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1010</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>1200</v>
+        <v>951</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1012</v>
+        <v>340</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>1201</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2" t="s">
-        <v>191</v>
+        <v>783</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>1015</v>
+        <v>955</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2" t="s">
-        <v>193</v>
+        <v>784</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>1016</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2" t="s">
-        <v>195</v>
+        <v>785</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>1019</v>
+        <v>959</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1020</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1021</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>346</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1022</v>
+        <v>962</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2" t="s">
-        <v>197</v>
+        <v>790</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1202</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1024</v>
+        <v>964</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>347</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2" t="s">
-        <v>797</v>
+        <v>794</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2" t="s">
-        <v>199</v>
+        <v>796</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2" t="s">
-        <v>202</v>
+        <v>798</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="2" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="513" spans="1:1">
-      <c r="A513" s="2" t="s">
+      <c r="B514" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="2" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="514" spans="1:1">
-      <c r="A514" s="2" t="s">
+      <c r="B515" s="2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="2" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="515" spans="1:1">
-      <c r="A515" s="2" t="s">
+      <c r="B516" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="2" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="516" spans="1:1">
-      <c r="A516" s="2" t="s">
+    <row r="518" spans="1:2">
+      <c r="A518" s="2" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="517" spans="1:1">
-      <c r="A517" s="2" t="s">
+    <row r="519" spans="1:2">
+      <c r="A519" s="2" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="518" spans="1:1">
-      <c r="A518" s="2" t="s">
+    <row r="520" spans="1:2">
+      <c r="A520" s="2" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="519" spans="1:1">
-      <c r="A519" s="2" t="s">
+    <row r="521" spans="1:2">
+      <c r="A521" s="2" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="520" spans="1:1">
-      <c r="A520" s="2" t="s">
+    <row r="522" spans="1:2">
+      <c r="A522" s="2" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="521" spans="1:1">
-      <c r="A521" s="2" t="s">
+    <row r="523" spans="1:2">
+      <c r="A523" s="2" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="522" spans="1:1">
-      <c r="A522" s="2" t="s">
+    <row r="524" spans="1:2">
+      <c r="A524" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="2" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="523" spans="1:1">
-      <c r="A523" s="2" t="s">
+    <row r="526" spans="1:2">
+      <c r="A526" s="2" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="524" spans="1:1">
-      <c r="A524" s="2" t="s">
+    <row r="527" spans="1:2">
+      <c r="A527" s="2" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="525" spans="1:1">
-      <c r="A525" s="2" t="s">
+    <row r="528" spans="1:2">
+      <c r="A528" s="2" t="s">
         <v>819</v>
-      </c>
-    </row>
-    <row r="526" spans="1:1">
-      <c r="A526" s="2" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="527" spans="1:1">
-      <c r="A527" s="2" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="528" spans="1:1">
-      <c r="A528" s="2" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="2" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="2" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" s="2" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" s="2" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" s="2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" s="2" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="2" t="s">
-        <v>833</v>
+        <v>225</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" s="2" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" s="2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="2" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" s="2" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="2" t="s">
-        <v>840</v>
+        <v>231</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" s="2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" s="2" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="2" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" s="2" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="2" t="s">
-        <v>846</v>
+        <v>235</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" s="2" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="2" t="s">
-        <v>223</v>
+        <v>842</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" s="2" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="2" t="s">
-        <v>849</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" s="2" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="2" t="s">
-        <v>851</v>
+        <v>237</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" s="2" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="2" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" s="2" t="s">
-        <v>225</v>
+        <v>847</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="2" t="s">
-        <v>854</v>
+        <v>240</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" s="2" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="2" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" s="2" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="2" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" s="2" t="s">
-        <v>228</v>
+        <v>852</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" s="2" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" s="2" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" s="2" t="s">
-        <v>231</v>
+        <v>855</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" s="2" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" s="2" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" s="2" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" s="2" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" s="2" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" s="2" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" s="2" t="s">
-        <v>235</v>
+        <v>862</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" s="2" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" s="2" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" s="2" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" s="2" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" s="2" t="s">
-        <v>237</v>
+        <v>867</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" s="2" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" s="2" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" s="2" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" s="2" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" s="2" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" s="2" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" s="2" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" s="2" t="s">
-        <v>878</v>
+        <v>250</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="2" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" s="2" t="s">
-        <v>880</v>
+        <v>255</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" s="2" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" s="2" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="2" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" s="2" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="2" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" s="2" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="2" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" s="2" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" s="2" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" s="2" t="s">
-        <v>890</v>
+        <v>265</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" s="2" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" s="2" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" s="2" t="s">
-        <v>893</v>
+        <v>267</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" s="2" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" s="2" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" s="2" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" s="2" t="s">
-        <v>246</v>
+        <v>890</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" s="2" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" s="2" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" s="2" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" s="2" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" s="2" t="s">
-        <v>250</v>
+        <v>895</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" s="2" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="2" t="s">
-        <v>255</v>
+        <v>897</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" s="2" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="2" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" s="2" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="2" t="s">
-        <v>905</v>
+        <v>269</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" s="2" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="2" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" s="2" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="2" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" s="2" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="2" t="s">
-        <v>265</v>
+        <v>906</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" s="2" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="2" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" s="2" t="s">
-        <v>267</v>
+        <v>909</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" s="2" t="s">
-        <v>914</v>
+        <v>272</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="2" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" s="2" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="2" t="s">
-        <v>917</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" s="2" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="2" t="s">
-        <v>919</v>
+        <v>273</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" s="2" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="2" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" s="2" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="2" t="s">
-        <v>923</v>
+        <v>276</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" s="2" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="2" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" s="2" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="2" t="s">
-        <v>269</v>
+        <v>920</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" s="2" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="2" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" s="2" t="s">
-        <v>271</v>
+        <v>923</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="2" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" s="2" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="2" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" s="2" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="2" t="s">
-        <v>933</v>
+        <v>281</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" s="2" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="2" t="s">
-        <v>935</v>
+        <v>285</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" s="2" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="2" t="s">
-        <v>273</v>
+        <v>930</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" s="2" t="s">
-        <v>937</v>
+        <v>292</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="2" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" s="2" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="2" t="s">
-        <v>274</v>
+        <v>933</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" s="2" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="2" t="s">
-        <v>941</v>
+        <v>300</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" s="2" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="2" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" s="2" t="s">
-        <v>944</v>
+        <v>304</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="2" t="s">
-        <v>277</v>
+        <v>937</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" s="2" t="s">
-        <v>945</v>
+        <v>310</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="2" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" s="2" t="s">
-        <v>947</v>
+        <v>313</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="2" t="s">
-        <v>948</v>
+        <v>314</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" s="2" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="2" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" s="2" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="2" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" s="2" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="2" t="s">
-        <v>954</v>
+        <v>319</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" s="2" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="2" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" s="2" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="2" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" s="2" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="2" t="s">
-        <v>282</v>
+        <v>950</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" s="2" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="2" t="s">
-        <v>286</v>
+        <v>952</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" s="2" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="2" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690" s="2" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="2" t="s">
-        <v>287</v>
+        <v>956</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692" s="2" t="s">
-        <v>293</v>
+        <v>957</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="2" t="s">
-        <v>295</v>
+        <v>958</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694" s="2" t="s">
-        <v>964</v>
+        <v>330</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="2" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="2" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" s="2" t="s">
-        <v>303</v>
+        <v>962</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="2" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" s="2" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="2" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" s="2" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="2" t="s">
-        <v>312</v>
+        <v>966</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" s="2" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="2" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" s="2" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="2" t="s">
-        <v>317</v>
+        <v>969</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" s="2" t="s">
-        <v>318</v>
+        <v>970</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" s="2" t="s">
-        <v>323</v>
+        <v>978</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="725" spans="1:1">
@@ -10527,206 +10503,6 @@
     <row r="726" spans="1:1">
       <c r="A726" s="2" t="s">
         <v>989</v>
-      </c>
-    </row>
-    <row r="727" spans="1:1">
-      <c r="A727" s="2" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="728" spans="1:1">
-      <c r="A728" s="2" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="729" spans="1:1">
-      <c r="A729" s="2" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="730" spans="1:1">
-      <c r="A730" s="2" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="731" spans="1:1">
-      <c r="A731" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="732" spans="1:1">
-      <c r="A732" s="2" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="733" spans="1:1">
-      <c r="A733" s="2" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="734" spans="1:1">
-      <c r="A734" s="2" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="735" spans="1:1">
-      <c r="A735" s="2" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="736" spans="1:1">
-      <c r="A736" s="2" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="737" spans="1:1">
-      <c r="A737" s="2" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="738" spans="1:1">
-      <c r="A738" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="739" spans="1:1">
-      <c r="A739" s="2" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="740" spans="1:1">
-      <c r="A740" s="2" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="741" spans="1:1">
-      <c r="A741" s="2" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="742" spans="1:1">
-      <c r="A742" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="743" spans="1:1">
-      <c r="A743" s="2" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="744" spans="1:1">
-      <c r="A744" s="2" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="745" spans="1:1">
-      <c r="A745" s="2" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="746" spans="1:1">
-      <c r="A746" s="2" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="747" spans="1:1">
-      <c r="A747" s="2" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="748" spans="1:1">
-      <c r="A748" s="2" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="749" spans="1:1">
-      <c r="A749" s="2" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="750" spans="1:1">
-      <c r="A750" s="2" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="751" spans="1:1">
-      <c r="A751" s="2" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="752" spans="1:1">
-      <c r="A752" s="2" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="753" spans="1:1">
-      <c r="A753" s="2" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="754" spans="1:1">
-      <c r="A754" s="2" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="755" spans="1:1">
-      <c r="A755" s="2" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="756" spans="1:1">
-      <c r="A756" s="2" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="757" spans="1:1">
-      <c r="A757" s="2" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="758" spans="1:1">
-      <c r="A758" s="2" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="759" spans="1:1">
-      <c r="A759" s="2" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="760" spans="1:1">
-      <c r="A760" s="2" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="761" spans="1:1">
-      <c r="A761" s="2" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="762" spans="1:1">
-      <c r="A762" s="2" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="763" spans="1:1">
-      <c r="A763" s="2" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="764" spans="1:1">
-      <c r="A764" s="2" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="765" spans="1:1">
-      <c r="A765" s="2" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="766" spans="1:1">
-      <c r="A766" s="2" t="s">
-        <v>1026</v>
       </c>
     </row>
   </sheetData>

--- a/Figure_5/data/Metascape/metascape_input_genes.xlsx
+++ b/Figure_5/data/Metascape/metascape_input_genes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlyu/Box Sync/TSGOG_Project/SA_sub/github/DORGE_paper/DORGE_codes/Figure_5/data/Metascape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9910A1C-2F23-764C-B54B-E23714A530CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CD224A-F589-A643-AD67-0F2DDB4DB322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="19440" windowHeight="10960" xr2:uid="{9FC99C9C-B362-E244-9BEA-B24A30F7C800}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="19440" windowHeight="10960" xr2:uid="{9FC99C9C-B362-E244-9BEA-B24A30F7C800}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1177">
   <si>
     <t>Novel DORGE-TSG</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3523,18 +3523,12 @@
     <t>PRCC</t>
   </si>
   <si>
-    <t>MLL3</t>
-  </si>
-  <si>
     <t>ASPM</t>
   </si>
   <si>
     <t>VEZT</t>
   </si>
   <si>
-    <t>MLL2</t>
-  </si>
-  <si>
     <t>ACTN1</t>
   </si>
   <si>
@@ -3569,6 +3563,10 @@
   </si>
   <si>
     <t>ANKRD40</t>
+  </si>
+  <si>
+    <t>KMT2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3938,10 +3936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A70CC6C-5A2D-8C41-99B0-71D265602C0E}">
-  <dimension ref="A1:F726"/>
+  <dimension ref="A1:F725"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B516"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4978,7 +4976,7 @@
         <v>409</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1165</v>
+        <v>400</v>
       </c>
       <c r="C74" t="s">
         <v>183</v>
@@ -4992,7 +4990,7 @@
         <v>33</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>400</v>
+        <v>118</v>
       </c>
       <c r="C75" t="s">
         <v>185</v>
@@ -5006,7 +5004,7 @@
         <v>410</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>118</v>
+        <v>1008</v>
       </c>
       <c r="C76" t="s">
         <v>186</v>
@@ -5020,7 +5018,7 @@
         <v>411</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C77" t="s">
         <v>187</v>
@@ -5034,7 +5032,7 @@
         <v>412</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1009</v>
+        <v>402</v>
       </c>
       <c r="C78" t="s">
         <v>35</v>
@@ -5048,7 +5046,7 @@
         <v>413</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C79" t="s">
         <v>189</v>
@@ -5062,7 +5060,7 @@
         <v>414</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C80" t="s">
         <v>190</v>
@@ -5076,7 +5074,7 @@
         <v>415</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C81" t="s">
         <v>192</v>
@@ -5090,7 +5088,7 @@
         <v>416</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C82" t="s">
         <v>36</v>
@@ -5104,7 +5102,7 @@
         <v>417</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>408</v>
+        <v>1010</v>
       </c>
       <c r="C83" t="s">
         <v>194</v>
@@ -5118,7 +5116,7 @@
         <v>418</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1010</v>
+        <v>409</v>
       </c>
       <c r="C84" t="s">
         <v>196</v>
@@ -5132,7 +5130,7 @@
         <v>419</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>409</v>
+        <v>1164</v>
       </c>
       <c r="C85" t="s">
         <v>38</v>
@@ -5146,7 +5144,7 @@
         <v>420</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1166</v>
+        <v>411</v>
       </c>
       <c r="C86" t="s">
         <v>39</v>
@@ -5160,7 +5158,7 @@
         <v>421</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C87" t="s">
         <v>198</v>
@@ -5174,7 +5172,7 @@
         <v>422</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>412</v>
+        <v>1011</v>
       </c>
       <c r="C88" t="s">
         <v>41</v>
@@ -5188,7 +5186,7 @@
         <v>423</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1011</v>
+        <v>413</v>
       </c>
       <c r="C89" t="s">
         <v>201</v>
@@ -5202,7 +5200,7 @@
         <v>424</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>413</v>
+        <v>1012</v>
       </c>
       <c r="C90" t="s">
         <v>42</v>
@@ -5216,7 +5214,7 @@
         <v>425</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1012</v>
+        <v>417</v>
       </c>
       <c r="C91" t="s">
         <v>203</v>
@@ -5230,7 +5228,7 @@
         <v>426</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C92" t="s">
         <v>204</v>
@@ -5244,7 +5242,7 @@
         <v>427</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C93" t="s">
         <v>43</v>
@@ -5258,7 +5256,7 @@
         <v>428</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>419</v>
+        <v>122</v>
       </c>
       <c r="C94" t="s">
         <v>206</v>
@@ -5272,7 +5270,7 @@
         <v>429</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C95" t="s">
         <v>208</v>
@@ -5286,7 +5284,7 @@
         <v>430</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>123</v>
+        <v>1013</v>
       </c>
       <c r="C96" t="s">
         <v>44</v>
@@ -5300,7 +5298,7 @@
         <v>40</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1013</v>
+        <v>126</v>
       </c>
       <c r="C97" t="s">
         <v>209</v>
@@ -5314,7 +5312,7 @@
         <v>431</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>126</v>
+        <v>1014</v>
       </c>
       <c r="C98" t="s">
         <v>46</v>
@@ -5328,7 +5326,7 @@
         <v>432</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1014</v>
+        <v>127</v>
       </c>
       <c r="C99" t="s">
         <v>211</v>
@@ -5342,7 +5340,7 @@
         <v>433</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>127</v>
+        <v>427</v>
       </c>
       <c r="C100" t="s">
         <v>212</v>
@@ -5356,7 +5354,7 @@
         <v>434</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>427</v>
+        <v>1015</v>
       </c>
       <c r="C101" t="s">
         <v>213</v>
@@ -5370,7 +5368,7 @@
         <v>435</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C102" t="s">
         <v>215</v>
@@ -5384,7 +5382,7 @@
         <v>436</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1016</v>
+        <v>129</v>
       </c>
       <c r="C103" t="s">
         <v>216</v>
@@ -5398,7 +5396,7 @@
         <v>437</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>129</v>
+        <v>428</v>
       </c>
       <c r="C104" t="s">
         <v>48</v>
@@ -5412,7 +5410,7 @@
         <v>438</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>428</v>
+        <v>1017</v>
       </c>
       <c r="C105" t="s">
         <v>218</v>
@@ -5426,7 +5424,7 @@
         <v>439</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1017</v>
+        <v>429</v>
       </c>
       <c r="C106" t="s">
         <v>219</v>
@@ -5440,7 +5438,7 @@
         <v>440</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>429</v>
+        <v>1018</v>
       </c>
       <c r="C107" t="s">
         <v>220</v>
@@ -5455,7 +5453,7 @@
         <v>441</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1018</v>
+        <v>431</v>
       </c>
       <c r="C108" t="s">
         <v>221</v>
@@ -5469,7 +5467,7 @@
         <v>442</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C109" t="s">
         <v>52</v>
@@ -5483,7 +5481,7 @@
         <v>443</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>433</v>
+        <v>1019</v>
       </c>
       <c r="C110" t="s">
         <v>222</v>
@@ -5497,7 +5495,7 @@
         <v>45</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1019</v>
+        <v>434</v>
       </c>
       <c r="C111" t="s">
         <v>224</v>
@@ -5511,7 +5509,7 @@
         <v>47</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>434</v>
+        <v>133</v>
       </c>
       <c r="C112" t="s">
         <v>226</v>
@@ -5525,7 +5523,7 @@
         <v>444</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>133</v>
+        <v>1020</v>
       </c>
       <c r="C113" t="s">
         <v>227</v>
@@ -5539,7 +5537,7 @@
         <v>445</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1020</v>
+        <v>436</v>
       </c>
       <c r="C114" t="s">
         <v>230</v>
@@ -5553,7 +5551,7 @@
         <v>446</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C115" t="s">
         <v>232</v>
@@ -5568,7 +5566,7 @@
         <v>447</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>437</v>
+        <v>1021</v>
       </c>
       <c r="C116" t="s">
         <v>54</v>
@@ -5582,7 +5580,7 @@
         <v>448</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1021</v>
+        <v>438</v>
       </c>
       <c r="C117" t="s">
         <v>233</v>
@@ -5596,7 +5594,7 @@
         <v>449</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C118" t="s">
         <v>234</v>
@@ -5610,7 +5608,7 @@
         <v>53</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C119" t="s">
         <v>236</v>
@@ -5624,7 +5622,7 @@
         <v>55</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C120" t="s">
         <v>238</v>
@@ -5638,7 +5636,7 @@
         <v>450</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>446</v>
+        <v>136</v>
       </c>
       <c r="C121" t="s">
         <v>239</v>
@@ -5652,7 +5650,7 @@
         <v>451</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>136</v>
+        <v>449</v>
       </c>
       <c r="C122" t="s">
         <v>56</v>
@@ -5666,7 +5664,7 @@
         <v>60</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C123" t="s">
         <v>242</v>
@@ -5680,7 +5678,7 @@
         <v>61</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>452</v>
+        <v>1022</v>
       </c>
       <c r="C124" t="s">
         <v>57</v>
@@ -5694,7 +5692,7 @@
         <v>453</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1022</v>
+        <v>455</v>
       </c>
       <c r="C125" t="s">
         <v>244</v>
@@ -5708,7 +5706,7 @@
         <v>454</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>455</v>
+        <v>1023</v>
       </c>
       <c r="C126" t="s">
         <v>58</v>
@@ -5722,7 +5720,7 @@
         <v>455</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1023</v>
+        <v>456</v>
       </c>
       <c r="C127" t="s">
         <v>245</v>
@@ -5736,7 +5734,7 @@
         <v>456</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>456</v>
+        <v>1024</v>
       </c>
       <c r="C128" t="s">
         <v>247</v>
@@ -5750,7 +5748,7 @@
         <v>457</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1024</v>
+        <v>461</v>
       </c>
       <c r="C129" t="s">
         <v>249</v>
@@ -5764,7 +5762,7 @@
         <v>458</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>461</v>
+        <v>140</v>
       </c>
       <c r="C130" t="s">
         <v>251</v>
@@ -5778,7 +5776,7 @@
         <v>459</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
       <c r="C131" t="s">
         <v>252</v>
@@ -5792,7 +5790,7 @@
         <v>460</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C132" t="s">
         <v>59</v>
@@ -5806,7 +5804,7 @@
         <v>461</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>465</v>
+        <v>141</v>
       </c>
       <c r="C133" t="s">
         <v>254</v>
@@ -5820,7 +5818,7 @@
         <v>462</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>141</v>
+        <v>471</v>
       </c>
       <c r="C134" t="s">
         <v>256</v>
@@ -5834,7 +5832,7 @@
         <v>463</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C135" t="s">
         <v>257</v>
@@ -5848,7 +5846,7 @@
         <v>464</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>472</v>
+        <v>1025</v>
       </c>
       <c r="C136" t="s">
         <v>258</v>
@@ -5862,7 +5860,7 @@
         <v>466</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1025</v>
+        <v>476</v>
       </c>
       <c r="C137" t="s">
         <v>260</v>
@@ -5876,7 +5874,7 @@
         <v>467</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>476</v>
+        <v>142</v>
       </c>
       <c r="C138" t="s">
         <v>62</v>
@@ -5890,7 +5888,7 @@
         <v>468</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>142</v>
+        <v>477</v>
       </c>
       <c r="C139" t="s">
         <v>261</v>
@@ -5904,7 +5902,7 @@
         <v>469</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>477</v>
+        <v>1026</v>
       </c>
       <c r="C140" t="s">
         <v>262</v>
@@ -5918,7 +5916,7 @@
         <v>470</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C141" t="s">
         <v>263</v>
@@ -5932,7 +5930,7 @@
         <v>471</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C142" t="s">
         <v>264</v>
@@ -5946,7 +5944,7 @@
         <v>472</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C143" t="s">
         <v>266</v>
@@ -5960,7 +5958,7 @@
         <v>473</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1029</v>
+        <v>479</v>
       </c>
       <c r="C144" t="s">
         <v>268</v>
@@ -5974,7 +5972,7 @@
         <v>474</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>479</v>
+        <v>1030</v>
       </c>
       <c r="C145" t="s">
         <v>270</v>
@@ -5988,7 +5986,7 @@
         <v>475</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1030</v>
+        <v>144</v>
       </c>
       <c r="C146" t="s">
         <v>63</v>
@@ -6002,7 +6000,7 @@
         <v>476</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C147" t="s">
         <v>271</v>
@@ -6016,7 +6014,7 @@
         <v>477</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>146</v>
+        <v>483</v>
       </c>
       <c r="C148" t="s">
         <v>274</v>
@@ -6030,7 +6028,7 @@
         <v>478</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>483</v>
+        <v>1031</v>
       </c>
       <c r="C149" t="s">
         <v>275</v>
@@ -6044,7 +6042,7 @@
         <v>479</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1031</v>
+        <v>147</v>
       </c>
       <c r="C150" t="s">
         <v>277</v>
@@ -6058,7 +6056,7 @@
         <v>480</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>147</v>
+        <v>484</v>
       </c>
       <c r="C151" t="s">
         <v>278</v>
@@ -6072,7 +6070,7 @@
         <v>481</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C152" t="s">
         <v>279</v>
@@ -6086,7 +6084,7 @@
         <v>68</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C153" t="s">
         <v>280</v>
@@ -6100,7 +6098,7 @@
         <v>482</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>487</v>
+        <v>148</v>
       </c>
       <c r="C154" t="s">
         <v>282</v>
@@ -6114,7 +6112,7 @@
         <v>483</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>148</v>
+        <v>490</v>
       </c>
       <c r="C155" t="s">
         <v>284</v>
@@ -6128,7 +6126,7 @@
         <v>72</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>490</v>
+        <v>150</v>
       </c>
       <c r="C156" t="s">
         <v>287</v>
@@ -6142,7 +6140,7 @@
         <v>484</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>150</v>
+        <v>1032</v>
       </c>
       <c r="C157" t="s">
         <v>288</v>
@@ -6156,7 +6154,7 @@
         <v>485</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1032</v>
+        <v>151</v>
       </c>
       <c r="C158" t="s">
         <v>290</v>
@@ -6170,7 +6168,7 @@
         <v>486</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C159" t="s">
         <v>291</v>
@@ -6184,7 +6182,7 @@
         <v>487</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>152</v>
+        <v>494</v>
       </c>
       <c r="C160" t="s">
         <v>65</v>
@@ -6198,7 +6196,7 @@
         <v>488</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>494</v>
+        <v>154</v>
       </c>
       <c r="C161" t="s">
         <v>293</v>
@@ -6212,7 +6210,7 @@
         <v>489</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>154</v>
+        <v>1033</v>
       </c>
       <c r="C162" t="s">
         <v>294</v>
@@ -6226,7 +6224,7 @@
         <v>490</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C163" t="s">
         <v>67</v>
@@ -6240,7 +6238,7 @@
         <v>491</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1034</v>
+        <v>495</v>
       </c>
       <c r="C164" t="s">
         <v>296</v>
@@ -6254,7 +6252,7 @@
         <v>492</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>495</v>
+        <v>156</v>
       </c>
       <c r="C165" t="s">
         <v>297</v>
@@ -6268,7 +6266,7 @@
         <v>493</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C166" t="s">
         <v>298</v>
@@ -6282,7 +6280,7 @@
         <v>494</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>157</v>
+        <v>497</v>
       </c>
       <c r="C167" t="s">
         <v>299</v>
@@ -6296,7 +6294,7 @@
         <v>495</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C168" t="s">
         <v>301</v>
@@ -6310,7 +6308,7 @@
         <v>496</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C169" t="s">
         <v>302</v>
@@ -6324,7 +6322,7 @@
         <v>497</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>502</v>
+        <v>159</v>
       </c>
       <c r="C170" t="s">
         <v>303</v>
@@ -6338,7 +6336,7 @@
         <v>498</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>159</v>
+        <v>504</v>
       </c>
       <c r="C171" t="s">
         <v>305</v>
@@ -6350,7 +6348,7 @@
         <v>499</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>504</v>
+        <v>1035</v>
       </c>
       <c r="C172" t="s">
         <v>306</v>
@@ -6362,7 +6360,7 @@
         <v>500</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1035</v>
+        <v>1165</v>
       </c>
       <c r="C173" t="s">
         <v>309</v>
@@ -6374,7 +6372,7 @@
         <v>501</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1167</v>
+        <v>160</v>
       </c>
       <c r="C174" t="s">
         <v>311</v>
@@ -6386,7 +6384,7 @@
         <v>502</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>160</v>
+        <v>509</v>
       </c>
       <c r="C175" t="s">
         <v>70</v>
@@ -6398,7 +6396,7 @@
         <v>503</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C176" t="s">
         <v>71</v>
@@ -6410,7 +6408,7 @@
         <v>504</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C177" t="s">
         <v>315</v>
@@ -6422,7 +6420,7 @@
         <v>505</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C178" t="s">
         <v>316</v>
@@ -6434,7 +6432,7 @@
         <v>506</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C179" t="s">
         <v>318</v>
@@ -6446,7 +6444,7 @@
         <v>507</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>514</v>
+        <v>164</v>
       </c>
       <c r="C180" t="s">
         <v>320</v>
@@ -6458,7 +6456,7 @@
         <v>508</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>164</v>
+        <v>1036</v>
       </c>
       <c r="C181" t="s">
         <v>321</v>
@@ -6470,7 +6468,7 @@
         <v>509</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1036</v>
+        <v>166</v>
       </c>
       <c r="C182" t="s">
         <v>322</v>
@@ -6482,7 +6480,7 @@
         <v>510</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>166</v>
+        <v>519</v>
       </c>
       <c r="C183" t="s">
         <v>325</v>
@@ -6494,7 +6492,7 @@
         <v>511</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>519</v>
+        <v>1037</v>
       </c>
       <c r="C184" t="s">
         <v>326</v>
@@ -6506,7 +6504,7 @@
         <v>512</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1162</v>
+        <v>1038</v>
       </c>
       <c r="C185" t="s">
         <v>327</v>
@@ -6518,7 +6516,7 @@
         <v>80</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>1037</v>
+        <v>1166</v>
       </c>
       <c r="C186" t="s">
         <v>75</v>
@@ -6530,7 +6528,7 @@
         <v>513</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C187" t="s">
         <v>328</v>
@@ -6542,7 +6540,7 @@
         <v>514</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1168</v>
+        <v>523</v>
       </c>
       <c r="C188" t="s">
         <v>78</v>
@@ -6554,7 +6552,7 @@
         <v>515</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1039</v>
+        <v>169</v>
       </c>
       <c r="C189" t="s">
         <v>329</v>
@@ -6566,7 +6564,7 @@
         <v>516</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C190" t="s">
         <v>331</v>
@@ -6578,7 +6576,7 @@
         <v>517</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>169</v>
+        <v>525</v>
       </c>
       <c r="C191" t="s">
         <v>332</v>
@@ -6590,7 +6588,7 @@
         <v>518</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C192" t="s">
         <v>333</v>
@@ -6602,7 +6600,7 @@
         <v>519</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C193" t="s">
         <v>334</v>
@@ -6611,10 +6609,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2" t="s">
-        <v>1162</v>
+        <v>520</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C194" t="s">
         <v>335</v>
@@ -6623,10 +6621,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>531</v>
+        <v>1040</v>
       </c>
       <c r="C195" t="s">
         <v>82</v>
@@ -6635,10 +6633,10 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>532</v>
+        <v>1041</v>
       </c>
       <c r="C196" t="s">
         <v>336</v>
@@ -6647,10 +6645,10 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>1040</v>
+        <v>534</v>
       </c>
       <c r="C197" t="s">
         <v>338</v>
@@ -6659,10 +6657,10 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1041</v>
+        <v>536</v>
       </c>
       <c r="C198" t="s">
         <v>340</v>
@@ -6671,10 +6669,10 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C199" t="s">
         <v>84</v>
@@ -6683,10 +6681,10 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>536</v>
+        <v>1042</v>
       </c>
       <c r="C200" t="s">
         <v>86</v>
@@ -6695,10 +6693,10 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>539</v>
+        <v>1043</v>
       </c>
       <c r="C201" t="s">
         <v>342</v>
@@ -6707,22 +6705,22 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1042</v>
+        <v>543</v>
       </c>
       <c r="C202" t="s">
-        <v>343</v>
+        <v>1176</v>
       </c>
       <c r="D202"/>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>1043</v>
+        <v>172</v>
       </c>
       <c r="C203" t="s">
         <v>88</v>
@@ -6731,3777 +6729,3766 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C204"/>
       <c r="D204"/>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2" t="s">
-        <v>530</v>
+        <v>83</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>172</v>
+        <v>547</v>
       </c>
       <c r="C205"/>
       <c r="D205"/>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2" t="s">
-        <v>83</v>
+        <v>531</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C206"/>
       <c r="D206"/>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>547</v>
+        <v>1044</v>
       </c>
       <c r="C207"/>
       <c r="D207"/>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>549</v>
+        <v>1045</v>
       </c>
       <c r="C208"/>
       <c r="D208"/>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1044</v>
+        <v>174</v>
       </c>
       <c r="C209"/>
       <c r="D209"/>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1045</v>
+        <v>177</v>
       </c>
       <c r="C210"/>
       <c r="D210"/>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2" t="s">
-        <v>535</v>
+        <v>85</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>174</v>
+        <v>556</v>
       </c>
       <c r="C211"/>
       <c r="D211"/>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2" t="s">
-        <v>85</v>
+        <v>536</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>177</v>
+        <v>557</v>
       </c>
       <c r="C212"/>
       <c r="D212"/>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C213"/>
       <c r="D213"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C214"/>
       <c r="D214"/>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>559</v>
+        <v>1046</v>
       </c>
       <c r="C215"/>
       <c r="D215"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>560</v>
+        <v>1047</v>
       </c>
       <c r="C216"/>
       <c r="D216"/>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>1046</v>
+        <v>178</v>
       </c>
       <c r="C217"/>
       <c r="D217"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1047</v>
+        <v>561</v>
       </c>
       <c r="C218"/>
       <c r="D218"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>542</v>
+        <v>89</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>178</v>
+        <v>562</v>
       </c>
       <c r="C219"/>
       <c r="D219"/>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2" t="s">
-        <v>89</v>
+        <v>1043</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C220"/>
       <c r="D220"/>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2" t="s">
-        <v>1043</v>
+        <v>543</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C221"/>
       <c r="D221"/>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="C222"/>
       <c r="D222"/>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>567</v>
+        <v>1048</v>
       </c>
       <c r="C223"/>
       <c r="D223"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C224"/>
       <c r="D224"/>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>1048</v>
+        <v>573</v>
       </c>
       <c r="C225"/>
       <c r="D225"/>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>571</v>
+        <v>1049</v>
       </c>
       <c r="C226"/>
       <c r="D226"/>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="C227"/>
       <c r="D227"/>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>549</v>
+        <v>91</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>1049</v>
+        <v>1167</v>
       </c>
       <c r="C228"/>
       <c r="D228"/>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>587</v>
+        <v>183</v>
       </c>
       <c r="C229"/>
       <c r="D229"/>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>93</v>
+        <v>550</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>1169</v>
+        <v>185</v>
       </c>
       <c r="C230"/>
       <c r="D230"/>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>183</v>
+        <v>590</v>
       </c>
       <c r="C231"/>
       <c r="D231"/>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>185</v>
+        <v>592</v>
       </c>
       <c r="C232"/>
       <c r="D232"/>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>590</v>
+        <v>186</v>
       </c>
       <c r="C233"/>
       <c r="D233"/>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>592</v>
+        <v>1050</v>
       </c>
       <c r="C234"/>
       <c r="D234"/>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>186</v>
+        <v>594</v>
       </c>
       <c r="C235"/>
       <c r="D235"/>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1050</v>
+        <v>595</v>
       </c>
       <c r="C236"/>
       <c r="D236"/>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>594</v>
+        <v>1051</v>
       </c>
       <c r="C237"/>
       <c r="D237"/>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C238"/>
       <c r="D238"/>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1051</v>
+        <v>599</v>
       </c>
       <c r="C239"/>
       <c r="D239"/>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>597</v>
+        <v>1052</v>
       </c>
       <c r="C240"/>
       <c r="D240"/>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>599</v>
+        <v>1053</v>
       </c>
       <c r="C241"/>
       <c r="D241"/>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1052</v>
+        <v>189</v>
       </c>
       <c r="C242"/>
       <c r="D242"/>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>1053</v>
+        <v>608</v>
       </c>
       <c r="C243"/>
       <c r="D243"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>189</v>
+        <v>1168</v>
       </c>
       <c r="C244"/>
       <c r="D244"/>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C245"/>
       <c r="D245"/>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>1170</v>
+        <v>1054</v>
       </c>
       <c r="C246"/>
       <c r="D246"/>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>611</v>
+        <v>192</v>
       </c>
       <c r="C247"/>
       <c r="D247"/>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>1054</v>
+        <v>613</v>
       </c>
       <c r="C248"/>
       <c r="D248"/>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2" t="s">
-        <v>568</v>
+        <v>100</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>192</v>
+        <v>1055</v>
       </c>
       <c r="C249"/>
       <c r="D249"/>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2" t="s">
-        <v>100</v>
+        <v>569</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>613</v>
+        <v>194</v>
       </c>
       <c r="C250"/>
       <c r="D250"/>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C251"/>
       <c r="D251"/>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>194</v>
+        <v>618</v>
       </c>
       <c r="C252"/>
       <c r="D252"/>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>1056</v>
+        <v>623</v>
       </c>
       <c r="C253"/>
       <c r="D253"/>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="C254"/>
       <c r="D254"/>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2" t="s">
-        <v>573</v>
+        <v>107</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>623</v>
+        <v>1057</v>
       </c>
       <c r="C255"/>
       <c r="D255"/>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2" t="s">
-        <v>107</v>
+        <v>574</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C256"/>
       <c r="D256"/>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1057</v>
+        <v>628</v>
       </c>
       <c r="C257"/>
       <c r="D257"/>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>629</v>
+        <v>1058</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>632</v>
+        <v>1059</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1058</v>
+        <v>636</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2" t="s">
-        <v>580</v>
+        <v>109</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2" t="s">
-        <v>109</v>
+        <v>581</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2" t="s">
-        <v>581</v>
+        <v>111</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2" t="s">
-        <v>113</v>
+        <v>582</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>1061</v>
+        <v>643</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2" t="s">
-        <v>582</v>
+        <v>117</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2" t="s">
-        <v>117</v>
+        <v>583</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>643</v>
+        <v>201</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2" t="s">
-        <v>583</v>
+        <v>119</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2" t="s">
-        <v>119</v>
+        <v>584</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>651</v>
+        <v>1062</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>1062</v>
+        <v>1169</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>206</v>
+        <v>1063</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1171</v>
+        <v>208</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>208</v>
+        <v>1065</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C280"/>
       <c r="D280"/>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>1066</v>
+        <v>209</v>
       </c>
       <c r="C281"/>
       <c r="D281"/>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>1067</v>
+        <v>680</v>
       </c>
       <c r="C282"/>
       <c r="D282"/>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>209</v>
+        <v>1068</v>
       </c>
       <c r="C283"/>
       <c r="D283"/>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C284"/>
       <c r="D284"/>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>1068</v>
+        <v>684</v>
       </c>
       <c r="C285"/>
       <c r="D285"/>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>682</v>
+        <v>1069</v>
       </c>
       <c r="C286"/>
       <c r="D286"/>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>684</v>
+        <v>1070</v>
       </c>
       <c r="C287"/>
       <c r="D287"/>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C288"/>
       <c r="D288"/>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>1070</v>
+        <v>688</v>
       </c>
       <c r="C289"/>
       <c r="D289"/>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C290"/>
       <c r="D290"/>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="C291"/>
       <c r="D291"/>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1072</v>
+        <v>216</v>
       </c>
       <c r="C292"/>
       <c r="D292"/>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>693</v>
+        <v>1073</v>
       </c>
       <c r="C293"/>
       <c r="D293"/>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>216</v>
+        <v>1074</v>
       </c>
       <c r="C294"/>
       <c r="D294"/>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2" t="s">
-        <v>609</v>
+        <v>125</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="C295"/>
       <c r="D295"/>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2" t="s">
-        <v>125</v>
+        <v>610</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>1074</v>
+        <v>218</v>
       </c>
       <c r="C296"/>
       <c r="D296"/>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>1075</v>
+        <v>700</v>
       </c>
       <c r="C297"/>
       <c r="D297"/>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>218</v>
+        <v>703</v>
       </c>
       <c r="C298"/>
       <c r="D298"/>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="C299"/>
       <c r="D299"/>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="C300"/>
       <c r="D300"/>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C301"/>
       <c r="D301"/>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2" t="s">
-        <v>616</v>
+        <v>128</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C302"/>
       <c r="D302"/>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2" t="s">
-        <v>128</v>
+        <v>617</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>712</v>
+        <v>1076</v>
       </c>
       <c r="C303"/>
       <c r="D303"/>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2" t="s">
-        <v>617</v>
+        <v>132</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C304"/>
       <c r="D304"/>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2" t="s">
-        <v>132</v>
+        <v>618</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1076</v>
+        <v>727</v>
       </c>
       <c r="C305"/>
       <c r="D305"/>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="C306"/>
       <c r="D306"/>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>727</v>
+        <v>1077</v>
       </c>
       <c r="C307"/>
       <c r="D307"/>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C308"/>
       <c r="D308"/>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2" t="s">
-        <v>621</v>
+        <v>134</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>1077</v>
+        <v>730</v>
       </c>
       <c r="C309"/>
       <c r="D309"/>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2" t="s">
-        <v>134</v>
+        <v>622</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C310"/>
       <c r="D310"/>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>730</v>
+        <v>220</v>
       </c>
       <c r="C311"/>
       <c r="D311"/>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C312"/>
       <c r="D312"/>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2" t="s">
-        <v>624</v>
+        <v>137</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>220</v>
+        <v>1078</v>
       </c>
       <c r="C313"/>
       <c r="D313"/>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2" t="s">
-        <v>137</v>
+        <v>625</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>734</v>
+        <v>1079</v>
       </c>
       <c r="C314"/>
       <c r="D314"/>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>1079</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>1080</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>1172</v>
+        <v>741</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2" t="s">
-        <v>629</v>
+        <v>139</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>1173</v>
+        <v>742</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2" t="s">
-        <v>139</v>
+        <v>630</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>741</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>742</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>1083</v>
+        <v>222</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>1084</v>
+        <v>224</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>222</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>224</v>
+        <v>745</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>1085</v>
+        <v>747</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>747</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>748</v>
+        <v>227</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2" t="s">
-        <v>641</v>
+        <v>145</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2" t="s">
-        <v>145</v>
+        <v>642</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>227</v>
+        <v>756</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1087</v>
+        <v>230</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>756</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>230</v>
+        <v>759</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>1088</v>
+        <v>761</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>759</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>761</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>1091</v>
+        <v>770</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>1092</v>
+        <v>771</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>770</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>771</v>
+        <v>238</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>1093</v>
+        <v>239</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>238</v>
+        <v>780</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>242</v>
+        <v>786</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>794</v>
+        <v>245</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>795</v>
+        <v>249</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>245</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>249</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2" t="s">
-        <v>667</v>
+        <v>1162</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>1094</v>
+        <v>252</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2" t="s">
-        <v>1163</v>
+        <v>668</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>252</v>
+        <v>807</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>807</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>1097</v>
+        <v>256</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2" t="s">
-        <v>674</v>
+        <v>158</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>1099</v>
+        <v>260</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2" t="s">
-        <v>158</v>
+        <v>675</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>258</v>
+        <v>817</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>260</v>
+        <v>818</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>817</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>818</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>1101</v>
+        <v>261</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>1102</v>
+        <v>822</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>822</v>
+        <v>263</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>262</v>
+        <v>831</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2" t="s">
-        <v>684</v>
+        <v>163</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>263</v>
+        <v>832</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>831</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2" t="s">
-        <v>165</v>
+        <v>685</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>832</v>
+        <v>264</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>1103</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>264</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1174</v>
+        <v>270</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>1104</v>
+        <v>271</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2" t="s">
-        <v>689</v>
+        <v>167</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>270</v>
+        <v>841</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>271</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2" t="s">
-        <v>168</v>
+        <v>690</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>841</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1106</v>
+        <v>849</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1107</v>
+        <v>274</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>849</v>
+        <v>275</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>274</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>275</v>
+        <v>853</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>1108</v>
+        <v>857</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>857</v>
+        <v>280</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2" t="s">
-        <v>699</v>
+        <v>171</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>862</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2" t="s">
-        <v>171</v>
+        <v>700</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>280</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>1109</v>
+        <v>868</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>1110</v>
+        <v>284</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>868</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>284</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>1113</v>
+        <v>290</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>290</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>1115</v>
+        <v>876</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>1117</v>
+        <v>293</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>878</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>293</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>1119</v>
+        <v>297</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>297</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>1121</v>
+        <v>298</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2" t="s">
-        <v>721</v>
+        <v>173</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>298</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2" t="s">
-        <v>173</v>
+        <v>722</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>1123</v>
+        <v>302</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>1124</v>
+        <v>894</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>302</v>
+        <v>896</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>894</v>
+        <v>303</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>303</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>902</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2" t="s">
-        <v>728</v>
+        <v>176</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2" t="s">
-        <v>176</v>
+        <v>730</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>1126</v>
+        <v>907</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>907</v>
+        <v>306</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>306</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>1129</v>
+        <v>309</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2" t="s">
-        <v>735</v>
+        <v>179</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>1130</v>
+        <v>914</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2" t="s">
-        <v>179</v>
+        <v>736</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>311</v>
+        <v>917</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>916</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>917</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>1133</v>
+        <v>316</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>1134</v>
+        <v>318</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>316</v>
+        <v>923</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>923</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>320</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>1136</v>
+        <v>925</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1137</v>
+        <v>321</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>927</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>1138</v>
+        <v>326</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>325</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>1139</v>
+        <v>328</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>327</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>328</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>1142</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>1145</v>
+        <v>939</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2" t="s">
-        <v>768</v>
+        <v>191</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>1146</v>
+        <v>941</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>939</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2" t="s">
-        <v>195</v>
+        <v>769</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>1147</v>
+        <v>333</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2" t="s">
-        <v>772</v>
+        <v>197</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2" t="s">
-        <v>197</v>
+        <v>773</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>335</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>946</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>1149</v>
+        <v>336</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2" t="s">
-        <v>777</v>
+        <v>199</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2" t="s">
-        <v>199</v>
+        <v>778</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>336</v>
+        <v>950</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2" t="s">
-        <v>778</v>
+        <v>202</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2" t="s">
-        <v>202</v>
+        <v>779</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1152</v>
+        <v>340</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>951</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>340</v>
+        <v>955</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>959</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1156</v>
+        <v>962</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1158</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1176</v>
+        <v>970</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>965</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>970</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1177</v>
+        <v>974</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1161</v>
+        <v>980</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>983</v>
+        <v>342</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2" t="s">
-        <v>805</v>
+        <v>214</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2" t="s">
-        <v>214</v>
+        <v>806</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>342</v>
+        <v>987</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>985</v>
+        <v>343</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="B515" s="2" t="s">
-        <v>987</v>
+        <v>808</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="B516" s="2" t="s">
-        <v>343</v>
+        <v>809</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2" t="s">
-        <v>815</v>
+        <v>217</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2" t="s">
-        <v>217</v>
+        <v>816</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" s="2" t="s">
-        <v>824</v>
+        <v>223</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="2" t="s">
-        <v>223</v>
+        <v>825</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" s="2" t="s">
-        <v>829</v>
+        <v>225</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="2" t="s">
-        <v>225</v>
+        <v>830</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="2" t="s">
-        <v>833</v>
+        <v>228</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" s="2" t="s">
-        <v>228</v>
+        <v>834</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" s="2" t="s">
-        <v>835</v>
+        <v>231</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="2" t="s">
-        <v>231</v>
+        <v>836</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" s="2" t="s">
-        <v>840</v>
+        <v>235</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="2" t="s">
-        <v>235</v>
+        <v>841</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" s="2" t="s">
-        <v>843</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="2" t="s">
-        <v>1164</v>
+        <v>844</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" s="2" t="s">
-        <v>844</v>
+        <v>237</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="2" t="s">
-        <v>237</v>
+        <v>845</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" s="2" t="s">
-        <v>847</v>
+        <v>240</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="2" t="s">
-        <v>240</v>
+        <v>848</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" s="2" t="s">
-        <v>870</v>
+        <v>246</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" s="2" t="s">
-        <v>246</v>
+        <v>871</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" s="2" t="s">
-        <v>874</v>
+        <v>250</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" s="2" t="s">
-        <v>250</v>
+        <v>875</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="2" t="s">
-        <v>875</v>
+        <v>255</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" s="2" t="s">
-        <v>255</v>
+        <v>876</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" s="2" t="s">
-        <v>884</v>
+        <v>265</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" s="2" t="s">
-        <v>265</v>
+        <v>885</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" s="2" t="s">
-        <v>886</v>
+        <v>267</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" s="2" t="s">
-        <v>267</v>
+        <v>887</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" s="2" t="s">
-        <v>900</v>
+        <v>269</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="2" t="s">
-        <v>269</v>
+        <v>901</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="2" t="s">
-        <v>910</v>
+        <v>272</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" s="2" t="s">
-        <v>272</v>
+        <v>911</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" s="2" t="s">
-        <v>912</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="2" t="s">
-        <v>1129</v>
+        <v>913</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" s="2" t="s">
-        <v>913</v>
+        <v>273</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="2" t="s">
-        <v>273</v>
+        <v>914</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" s="2" t="s">
-        <v>916</v>
+        <v>276</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="2" t="s">
-        <v>276</v>
+        <v>917</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" s="2" t="s">
-        <v>927</v>
+        <v>281</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="2" t="s">
-        <v>281</v>
+        <v>928</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" s="2" t="s">
-        <v>928</v>
+        <v>285</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="2" t="s">
-        <v>285</v>
+        <v>929</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="2" t="s">
-        <v>930</v>
+        <v>292</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" s="2" t="s">
-        <v>292</v>
+        <v>931</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" s="2" t="s">
-        <v>934</v>
+        <v>300</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="2" t="s">
-        <v>300</v>
+        <v>935</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="2" t="s">
-        <v>936</v>
+        <v>304</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" s="2" t="s">
-        <v>304</v>
+        <v>937</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="2" t="s">
-        <v>937</v>
+        <v>310</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" s="2" t="s">
-        <v>310</v>
+        <v>938</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="2" t="s">
-        <v>938</v>
+        <v>313</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="2" t="s">
-        <v>314</v>
+        <v>939</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" s="2" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" s="2" t="s">
-        <v>944</v>
+        <v>319</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="2" t="s">
-        <v>319</v>
+        <v>945</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="2" t="s">
-        <v>958</v>
+        <v>330</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694" s="2" t="s">
-        <v>330</v>
+        <v>959</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" s="2" t="s">
-        <v>964</v>
+        <v>337</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="2" t="s">
-        <v>337</v>
+        <v>965</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="2" t="s">
-        <v>966</v>
+        <v>339</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" s="2" t="s">
-        <v>339</v>
+        <v>967</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" s="2" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="2" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" s="2" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="726" spans="1:1">
-      <c r="A726" s="2" t="s">
         <v>989</v>
       </c>
     </row>
